--- a/excel data/MONDAY.xlsx
+++ b/excel data/MONDAY.xlsx
@@ -906,7 +906,7 @@
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>RLN</t>
         </is>
       </c>
       <c r="AW2" t="n">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ZL</t>
         </is>
       </c>
       <c r="AS7" t="n">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>VMW/TC</t>
+          <t>VMW/TAC</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>VMW/TC</t>
+          <t>VMW/TAC</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>VMW/TC</t>
+          <t>VMW/TAC</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>VMW/TC</t>
+          <t>VMW/TAC</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>VMW/TC</t>
+          <t>VMW/TAC</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>VMW/TC</t>
+          <t>VMW/TAC</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>AMS/CS/IMB/JML</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>AMS/CS/IMB/JML</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -3668,7 +3668,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>AMS/CS/IMB/JML</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>AMS/CS/IMB/JML</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>AMS/CS/IMB/JML</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>AMS/CS/IMB/JML</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>IK/MS</t>
+          <t>MS/MC</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -4142,7 +4142,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>IK/MS</t>
+          <t>MS/MC</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -4162,7 +4162,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>IK/MS</t>
+          <t>MS/MC</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>MC/SD</t>
+          <t>SD/MC</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>MC/SD</t>
+          <t>SD/MC</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>MC/SD</t>
+          <t>SD/MC</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>JW</t>
+          <t>JW/TM</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -4883,7 +4883,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>JW</t>
+          <t>JW/DK</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>JW</t>
+          <t>JW/TM</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -4923,7 +4923,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>JW</t>
+          <t>JW/DK</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>JW</t>
+          <t>JW/TM</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>JW</t>
+          <t>JW/TM</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
@@ -5110,7 +5110,7 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>SC,DK</t>
+          <t>SC/DK</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>SC,DK</t>
+          <t>SC/DK</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -5150,7 +5150,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>SC,DK</t>
+          <t>SC/DK</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>SS,MK</t>
+          <t>SS/MK</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
@@ -5190,7 +5190,7 @@
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>SS,MK</t>
+          <t>SS/MK</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>SS,MK</t>
+          <t>SS/MK</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
@@ -5360,10 +5360,8 @@
           <t>SM</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>LAB 1</t>
-        </is>
+      <c r="U21" t="n">
+        <v>62</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -5380,10 +5378,8 @@
           <t>SKD</t>
         </is>
       </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>LAB 1</t>
-        </is>
+      <c r="Y21" t="n">
+        <v>62</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
@@ -5400,10 +5396,8 @@
           <t>RH</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>LAB 1</t>
-        </is>
+      <c r="AC21" t="n">
+        <v>62</v>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
@@ -5420,10 +5414,8 @@
           <t>SM</t>
         </is>
       </c>
-      <c r="AG21" t="inlineStr">
-        <is>
-          <t>LAB 1</t>
-        </is>
+      <c r="AG21" t="n">
+        <v>61</v>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
@@ -5440,10 +5432,8 @@
           <t>RH</t>
         </is>
       </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>LAB 1</t>
-        </is>
+      <c r="AK21" t="n">
+        <v>61</v>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
@@ -5460,10 +5450,8 @@
           <t>BS</t>
         </is>
       </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>LAB 1</t>
-        </is>
+      <c r="AO21" t="n">
+        <v>61</v>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
@@ -5604,7 +5592,7 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>FAL,BM,JNS</t>
+          <t>FAL/BM/JNS</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -5624,7 +5612,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>FAL,BM,JNS</t>
+          <t>FAL/BM/JNS</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -5644,7 +5632,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>FAL,BM,JNS</t>
+          <t>FAL/BM/JNS</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
@@ -5664,7 +5652,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>ADM,DL,KM</t>
+          <t>ADM/DL/KM</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
@@ -5684,7 +5672,7 @@
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>ADM,DL,KM</t>
+          <t>ADM/DL/KM</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
@@ -5704,7 +5692,7 @@
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>ADM,DL,KM</t>
+          <t>ADM/DL/KM</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
@@ -6333,7 +6321,7 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>Fr. GN</t>
+          <t>FGN</t>
         </is>
       </c>
       <c r="U25" t="n">
@@ -6351,7 +6339,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>FR GN</t>
+          <t>FGN</t>
         </is>
       </c>
       <c r="Y25" t="n">
@@ -6369,7 +6357,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>FR GN/CK</t>
+          <t>FGN/CK</t>
         </is>
       </c>
       <c r="AC25" t="n">
@@ -6387,7 +6375,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>GN/CK</t>
+          <t>FGN/CK</t>
         </is>
       </c>
       <c r="AG25" t="n">
@@ -6405,7 +6393,7 @@
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>GN/CK</t>
+          <t>FGN/CK</t>
         </is>
       </c>
       <c r="AK25" t="n">
@@ -6423,7 +6411,7 @@
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>GN/CK</t>
+          <t>FGN/CK</t>
         </is>
       </c>
       <c r="AO25" t="n">
